--- a/Healthcare/Intuitive Surgical.xlsx
+++ b/Healthcare/Intuitive Surgical.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF090019-0301-E047-84F2-92BF4009AFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E551BE2D-F6DE-0741-A8C1-231D6E7A2A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,6 +1012,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,12 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2415,11 +2415,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>308</v>
+    <v>308.45999999999998</v>
     <v>180.07</v>
-    <v>1.3069999999999999</v>
-    <v>29.29</v>
-    <v>0.10877200000000001</v>
+    <v>1.3101</v>
+    <v>0.88</v>
+    <v>2.908E-3</v>
+    <v>0.03</v>
+    <v>9.8860000000000012E-5</v>
     <v>USD</v>
     <v>Intuitive Surgical, Inc. develops, manufactures, and markets the da Vinci surgical system and the Ion endoluminal system. The Company's products and related services enable physicians and healthcare providers to access minimally invasive care. The systems consist of a surgeon console or consoles, a patient-side cart, a vision system, and instruments and accessories. Its da Vinci products consist of five categories, such as da Vinci surgical systems, da Vinci instruments and accessories, da Vinci Stapling, da Vinci Energy, and da Vinci Vision, including Firefly Fluorescence imaging systems and da Vinci Endoscopes. It also provides a suite of systems, learning, and services offerings. Its Ion endoluminal system extends its commercial offerings beyond surgery into diagnostic procedures, enabling minimally invasive biopsies in the lung. Its services include readiness support, maintenance support, perioperative consulting, customer hospital analytics, and market consulting optimization.</v>
     <v>12120</v>
@@ -2427,24 +2429,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1020 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>304.83999999999997</v>
+    <v>304.19</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45035.998416585157</v>
+    <v>45057.999668888282</v>
     <v>0</v>
-    <v>292</v>
-    <v>104576232490</v>
+    <v>300.41000000000003</v>
+    <v>106027000000</v>
     <v>INTUITIVE SURGICAL, INC.</v>
     <v>INTUITIVE SURGICAL, INC.</v>
-    <v>292</v>
-    <v>81.733699999999999</v>
-    <v>269.27999999999997</v>
-    <v>298.57</v>
-    <v>350257000</v>
+    <v>302</v>
+    <v>82.834199999999996</v>
+    <v>302.58999999999997</v>
+    <v>303.47000000000003</v>
+    <v>303.5</v>
+    <v>350398100</v>
     <v>ISRG</v>
     <v>INTUITIVE SURGICAL, INC. (XNAS:ISRG)</v>
-    <v>6178190</v>
-    <v>1621766</v>
+    <v>1305250</v>
+    <v>1780484</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -2476,6 +2479,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2496,6 +2501,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2512,7 +2518,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2523,13 +2529,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2595,13 +2604,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2646,6 +2661,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2653,6 +2671,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3014,10 +3035,10 @@
   <dimension ref="A1:AI118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB88" sqref="AB88"/>
+      <selection pane="bottomRight" activeCell="AD100" sqref="AD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4573,15 +4594,15 @@
       </c>
       <c r="AG16" s="30">
         <f>AH101/Z3</f>
-        <v>16.806954532159043</v>
+        <v>17.040114428980104</v>
       </c>
       <c r="AH16" s="30">
         <f>AH101/Z28</f>
-        <v>79.086616115858732</v>
+        <v>80.18377070256372</v>
       </c>
       <c r="AI16" s="31">
         <f>AH101/Z106</f>
-        <v>109.11543456803005</v>
+        <v>110.62917362270451</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10041,10 +10062,10 @@
       <c r="Z83" s="1">
         <v>-546600000</v>
       </c>
-      <c r="AG83" s="59" t="s">
+      <c r="AG83" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="AH83" s="60"/>
+      <c r="AH83" s="62"/>
     </row>
     <row r="84" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10125,10 +10146,10 @@
       <c r="Z84" s="1">
         <v>21300000</v>
       </c>
-      <c r="AG84" s="61" t="s">
+      <c r="AG84" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="AH84" s="62"/>
+      <c r="AH84" s="64"/>
     </row>
     <row r="85" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10930,10 +10951,10 @@
       <c r="Z93" s="1">
         <v>-12800000</v>
       </c>
-      <c r="AG93" s="61" t="s">
+      <c r="AG93" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="AH93" s="62"/>
+      <c r="AH93" s="64"/>
     </row>
     <row r="94" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11105,7 +11126,7 @@
       </c>
       <c r="AH95" s="38" cm="1">
         <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>1.3069999999999999</v>
+        <v>1.3101</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11278,7 +11299,7 @@
       </c>
       <c r="AH97" s="36">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>9.7216350000000007E-2</v>
+        <v>9.7349805000000011E-2</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11360,10 +11381,10 @@
       <c r="Z98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG98" s="61" t="s">
+      <c r="AG98" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="AH98" s="62"/>
+      <c r="AH98" s="64"/>
     </row>
     <row r="99" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11536,7 +11557,7 @@
       </c>
       <c r="AH100" s="34">
         <f>AH99/AH103</f>
-        <v>2.3135659599030401E-4</v>
+        <v>2.2819166591231404E-4</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11623,7 +11644,7 @@
       </c>
       <c r="AH101" s="39" cm="1">
         <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>104576232490</v>
+        <v>106027000000</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11710,7 +11731,7 @@
       </c>
       <c r="AH102" s="34">
         <f>AH101/AH103</f>
-        <v>0.99976864340400973</v>
+        <v>0.99977180833408763</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11797,7 +11818,7 @@
       </c>
       <c r="AH103" s="40">
         <f>AH99+AH101</f>
-        <v>104600432490</v>
+        <v>106051200000</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11879,10 +11900,10 @@
       <c r="Z104" s="11">
         <v>1600700000</v>
       </c>
-      <c r="AG104" s="61" t="s">
+      <c r="AG104" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="AH104" s="62"/>
+      <c r="AH104" s="64"/>
     </row>
     <row r="105" spans="1:34" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11996,7 +12017,7 @@
       </c>
       <c r="AH105" s="26">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>9.7431427290676151E-2</v>
+        <v>9.7561909606194958E-2</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12142,7 +12163,7 @@
       <c r="AD107" s="42"/>
       <c r="AE107" s="45">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>25254489910.875549</v>
+        <v>25209076768.653938</v>
       </c>
       <c r="AF107" s="46" t="s">
         <v>149</v>
@@ -12173,7 +12194,7 @@
       </c>
       <c r="AE108" s="45">
         <f>AE107+AE106</f>
-        <v>27039093569.161106</v>
+        <v>26993680426.939495</v>
       </c>
       <c r="AF108" s="46" t="s">
         <v>145</v>
@@ -12183,14 +12204,14 @@
       </c>
       <c r="AH108" s="50">
         <f>AH105</f>
-        <v>9.7431427290676151E-2</v>
+        <v>9.7561909606194958E-2</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="63" t="s">
+      <c r="AA109" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="AB109" s="64"/>
+      <c r="AB109" s="60"/>
     </row>
     <row r="110" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="AA110" s="51" t="s">
@@ -12198,7 +12219,7 @@
       </c>
       <c r="AB110" s="39">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>21135399821.960125</v>
+        <v>21095540263.611828</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12225,7 +12246,7 @@
       </c>
       <c r="AB113" s="39">
         <f>AB110+AB111-AB112</f>
-        <v>27852699821.960125</v>
+        <v>27812840263.611828</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12243,7 +12264,7 @@
       </c>
       <c r="AB115" s="54">
         <f>AB113/AB114</f>
-        <v>72.288706811407494</v>
+        <v>72.185255586014961</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12252,7 +12273,7 @@
       </c>
       <c r="AB116" s="55" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price",TRUE)</f>
-        <v>298.57</v>
+        <v>303.47000000000003</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
@@ -12261,7 +12282,7 @@
       </c>
       <c r="AB117" s="57">
         <f>AB115/AB116-1</f>
-        <v>-0.75788355557689147</v>
+        <v>-0.76213380042173873</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">

--- a/Healthcare/Intuitive Surgical.xlsx
+++ b/Healthcare/Intuitive Surgical.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E551BE2D-F6DE-0741-A8C1-231D6E7A2A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BBDB0E-1741-B241-B633-A104A509BA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -396,9 +396,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -513,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -553,20 +547,55 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -683,8 +712,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,8 +762,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -833,22 +875,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -856,47 +889,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -938,97 +936,142 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1080,19 +1123,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ISRG</a:t>
+              <a:t>Intuitive Surgical</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.47331565041973062"/>
-          <c:y val="2.7729638210879998E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1126,29 +1161,26 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6416528925619828E-2"/>
-          <c:y val="0.11791038304954903"/>
-          <c:w val="0.87465785123966944"/>
-          <c:h val="0.7516212012891007"/>
+          <c:x val="0.10021818181818182"/>
+          <c:y val="0.15057669430559772"/>
+          <c:w val="0.82705454545454549"/>
+          <c:h val="0.60239697214444077"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$3:$B$3</c:f>
+              <c:f>'Sheet 1'!$A$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Revenue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>- -</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1186,90 +1218,207 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$3:$Z$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AE$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10192000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>26624000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>51673000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>72022000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>91675000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>138803000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>227338000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>372682000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>600828000</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>874919000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1052168000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1413000000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>1757300000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>2178800000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>2265100000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>2131700000</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>2384400000</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>2704400000</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>3128900000</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>3724200000</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>4478500000</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>4358400000</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>5710100000</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>6222200000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7139000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8179000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9213000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10207000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11474000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-01D5-ED40-B15E-008968CE34F6}"/>
+              <c16:uniqueId val="{00000000-32EB-0F4D-A23D-9B8B653172DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1278,14 +1427,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19:$B$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>(29)</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1323,90 +1469,207 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$19:$Z$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AE$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-16172000</c:v>
+                  <c:v>-29443000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13771000</c:v>
+                  <c:v>-18415000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-11988000</c:v>
+                  <c:v>-18523000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-13872000</c:v>
+                  <c:v>-16700000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1006000</c:v>
+                  <c:v>-18421000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31315000</c:v>
+                  <c:v>-9623000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80534000</c:v>
+                  <c:v>23478000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>155407000</c:v>
+                  <c:v>94134000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>250261000</c:v>
+                  <c:v>72044000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>360287000</c:v>
+                  <c:v>144537000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>430688000</c:v>
+                  <c:v>204315000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>612700000</c:v>
+                  <c:v>232606000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>756200000</c:v>
+                  <c:v>381800000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>951700000</c:v>
+                  <c:v>495100000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>938200000</c:v>
+                  <c:v>656600000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>623400000</c:v>
+                  <c:v>671000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>848000000</c:v>
+                  <c:v>418800000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1072900000</c:v>
+                  <c:v>588800000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1195600000</c:v>
+                  <c:v>735900000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1405200000</c:v>
+                  <c:v>660000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1702700000</c:v>
+                  <c:v>1127900000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1477000000</c:v>
+                  <c:v>1379300000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2177000000</c:v>
+                  <c:v>1060600000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1614400000</c:v>
+                  <c:v>1704600000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1322300000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1992000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2312000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2685000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2942000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3498000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-01D5-ED40-B15E-008968CE34F6}"/>
+              <c16:uniqueId val="{00000001-32EB-0F4D-A23D-9B8B653172DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1415,14 +1678,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106:$B$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>- -</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1460,90 +1720,207 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$106:$Z$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AE$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-16858000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>-16359000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-24080000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-19936000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>-10379000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7876000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>40733000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>81791000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>181680000</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>172262000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>331639000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>432000000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>594700000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>672400000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>775400000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>559500000</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>690900000</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>989000000</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>953200000</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>982200000</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>1172600000</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>1143300000</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>1735900000</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>958400000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1574000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2498000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2892000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3805000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-01D5-ED40-B15E-008968CE34F6}"/>
+              <c16:uniqueId val="{00000002-32EB-0F4D-A23D-9B8B653172DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1555,13 +1932,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="337565711"/>
-        <c:axId val="337509343"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="457275359"/>
+        <c:axId val="457277087"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337565711"/>
+        <c:axId val="457275359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1589,7 +1966,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1601,7 +1978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337509343"/>
+        <c:crossAx val="457277087"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1609,7 +1986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337509343"/>
+        <c:axId val="457277087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1658,7 +2035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337565711"/>
+        <c:crossAx val="457275359"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1676,10 +2053,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31722782586061038"/>
-          <c:y val="0.93563058881656513"/>
-          <c:w val="0.37876738465543047"/>
-          <c:h val="4.0601149859823403E-2"/>
+          <c:x val="0.35104366499642092"/>
+          <c:y val="0.89156622159280863"/>
+          <c:w val="0.31378033448298304"/>
+          <c:h val="6.2614758005821544E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1786,7 +2163,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2024,7 +2401,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2259,22 +2635,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1603374</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BF3860-489F-9365-D789-6AB22AE4C6D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BE47A0-6AC5-BE43-A7BA-6E2F9A912004}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,6 +2669,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Software"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2415,13 +2845,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>308.45999999999998</v>
-    <v>180.07</v>
-    <v>1.3101</v>
-    <v>0.88</v>
-    <v>2.908E-3</v>
-    <v>0.03</v>
-    <v>9.8860000000000012E-5</v>
+    <v>358.07</v>
+    <v>206.77</v>
+    <v>1.3008</v>
+    <v>-2.0699999999999998</v>
+    <v>-7.5129999999999997E-3</v>
+    <v>-22.45</v>
+    <v>-8.2098999999999991E-2</v>
     <v>USD</v>
     <v>Intuitive Surgical, Inc. develops, manufactures, and markets the da Vinci surgical system and the Ion endoluminal system. The Company's products and related services enable physicians and healthcare providers to access minimally invasive care. The systems consist of a surgeon console or consoles, a patient-side cart, a vision system, and instruments and accessories. Its da Vinci products consist of five categories, such as da Vinci surgical systems, da Vinci instruments and accessories, da Vinci Stapling, da Vinci Energy, and da Vinci Vision, including Firefly Fluorescence imaging systems and da Vinci Endoscopes. It also provides a suite of systems, learning, and services offerings. Its Ion endoluminal system extends its commercial offerings beyond surgery into diagnostic procedures, enabling minimally invasive biopsies in the lung. Its services include readiness support, maintenance support, perioperative consulting, customer hospital analytics, and market consulting optimization.</v>
     <v>12120</v>
@@ -2429,25 +2859,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1020 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>304.19</v>
+    <v>278.13</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45057.999668888282</v>
+    <v>45218.999931296094</v>
     <v>0</v>
-    <v>300.41000000000003</v>
-    <v>106027000000</v>
+    <v>271.70999999999998</v>
+    <v>96077942715</v>
     <v>INTUITIVE SURGICAL, INC.</v>
     <v>INTUITIVE SURGICAL, INC.</v>
-    <v>302</v>
-    <v>82.834199999999996</v>
-    <v>302.58999999999997</v>
-    <v>303.47000000000003</v>
-    <v>303.5</v>
-    <v>350398100</v>
+    <v>277.10000000000002</v>
+    <v>64.88</v>
+    <v>275.52</v>
+    <v>273.45</v>
+    <v>251</v>
+    <v>351354700</v>
     <v>ISRG</v>
     <v>INTUITIVE SURGICAL, INC. (XNAS:ISRG)</v>
-    <v>1305250</v>
-    <v>1780484</v>
+    <v>3022847</v>
+    <v>1803289</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -3032,13 +3462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI118"/>
+  <dimension ref="A1:AI119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD100" sqref="AD100"/>
+      <selection pane="bottomRight" activeCell="Z113" sqref="Z113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3127,19 +3557,19 @@
       <c r="Z1" s="8">
         <v>2022</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="23">
         <v>2023</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="23">
         <v>2024</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="23">
         <v>2025</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="23">
         <v>2026</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3148,88 +3578,88 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
@@ -3243,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>10192000</v>
@@ -3317,154 +3747,154 @@
       <c r="Z3" s="1">
         <v>6222200000</v>
       </c>
-      <c r="AA3" s="28">
-        <v>6914000000</v>
-      </c>
-      <c r="AB3" s="28">
-        <v>7839000000</v>
-      </c>
-      <c r="AC3" s="28">
-        <v>8855000000</v>
-      </c>
-      <c r="AD3" s="28">
-        <v>9998000000</v>
-      </c>
-      <c r="AE3" s="28">
-        <v>11581000000</v>
+      <c r="AA3" s="24">
+        <v>7139000000</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>8179000000</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>9213000000</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>10207000000</v>
+      </c>
+      <c r="AE3" s="24">
+        <v>11474000000</v>
       </c>
       <c r="AF3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AG3" s="19" t="s">
+      <c r="AI3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15" t="e">
+      <c r="C4" s="41" t="e">
         <f>(C3/B3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="41">
         <f>(D3/C3)-1</f>
         <v>1.6122448979591835</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="41">
         <f>(E3/D3)-1</f>
         <v>0.94084284855769229</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="41">
         <f t="shared" ref="F4:AE4" si="0">(F3/E3)-1</f>
         <v>0.39380334023571306</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="41">
         <f t="shared" si="0"/>
         <v>0.27287495487489943</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="41">
         <f t="shared" si="0"/>
         <v>0.51407690209980905</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="41">
         <f t="shared" si="0"/>
         <v>0.63784644424111869</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="41">
         <f t="shared" si="0"/>
         <v>0.63932998442847211</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="41">
         <f t="shared" si="0"/>
         <v>0.61217338105945562</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="41">
         <f t="shared" si="0"/>
         <v>0.45618879279927027</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="41">
         <f t="shared" si="0"/>
         <v>0.20258903967110098</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="41">
         <f t="shared" si="0"/>
         <v>0.34294143140639144</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="41">
         <f t="shared" si="0"/>
         <v>0.24366595895258314</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="41">
         <f t="shared" si="0"/>
         <v>0.23985659819040572</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="41">
         <f t="shared" si="0"/>
         <v>3.9608959060033033E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="41">
         <f t="shared" si="0"/>
         <v>-5.8893647079599099E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="41">
         <f t="shared" si="0"/>
         <v>0.11854388516207726</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="41">
         <f t="shared" si="0"/>
         <v>0.13420567018956553</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="41">
         <f t="shared" si="0"/>
         <v>0.15696642508504666</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="41">
         <f t="shared" si="0"/>
         <v>0.19025855732046404</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="41">
         <f t="shared" si="0"/>
         <v>0.20254014284947108</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="41">
         <f t="shared" si="0"/>
         <v>-2.6817014625432622E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="41">
         <f t="shared" si="0"/>
         <v>0.31013674743024966</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="41">
         <f t="shared" si="0"/>
         <v>8.968319293882776E-2</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11118253993764271</v>
+        <v>0.14734338336922637</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>0.13378652010413661</v>
+        <v>0.14567866647989924</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12960836841433854</v>
+        <v>0.1264213229001101</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12907961603613782</v>
+        <v>0.10789102355367408</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="0"/>
-        <v>0.15833166633326656</v>
+        <v>0.12413049867737835</v>
       </c>
       <c r="AF4" s="17">
         <f>(Z4+Y4+X4)/3</f>
@@ -3479,7 +3909,7 @@
         <v>5.0622915646291435E-2</v>
       </c>
       <c r="AI4" s="17">
-        <f>(Z105+Y105+X105)/3</f>
+        <f>(Z106+Y106+X106)/3</f>
         <v>1.5147492503751655E-2</v>
       </c>
     </row>
@@ -3488,7 +3918,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
         <v>7030000</v>
@@ -3568,7 +3998,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10">
         <v>3162000</v>
@@ -3643,16 +4073,16 @@
         <v>4196000000</v>
       </c>
       <c r="AF6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AG6" s="19" t="s">
+      <c r="AI6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AH6" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -3660,7 +4090,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2">
         <v>0.31019999999999998</v>
@@ -3747,7 +4177,7 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="AI7" s="20">
-        <f>Z106/Z3</f>
+        <f>Z107/Z3</f>
         <v>0.15402912153257689</v>
       </c>
     </row>
@@ -3833,7 +4263,7 @@
     </row>
     <row r="9" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3936,16 +4366,16 @@
         <v>0.14126836167272025</v>
       </c>
       <c r="AF9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AG9" s="19" t="s">
+      <c r="AH9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AH9" s="19" t="s">
+      <c r="AI9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AI9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -3953,10 +4383,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1">
         <v>19136000</v>
@@ -4019,13 +4449,13 @@
         <v>1178400000</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="17">
         <f>Z9</f>
@@ -4049,79 +4479,79 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -4129,10 +4559,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1">
         <v>19136000</v>
@@ -4195,7 +4625,7 @@
         <v>1178400000</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y12" s="1">
         <v>1466500000</v>
@@ -4204,21 +4634,21 @@
         <v>1739900000</v>
       </c>
       <c r="AF12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AG12" s="19" t="s">
+      <c r="AI12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AH12" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -4351,70 +4781,70 @@
         <v>4752000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1">
         <v>1216300000</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -4497,16 +4927,16 @@
         <v>2618900000</v>
       </c>
       <c r="AF15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AG15" s="19" t="s">
+      <c r="AI15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AH15" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -4588,109 +5018,109 @@
       <c r="Z16" s="1">
         <v>4645100000</v>
       </c>
-      <c r="AF16" s="29">
+      <c r="AF16" s="25">
         <f>(Z35+Y35+X35+W35+V35)/5</f>
         <v>1.0086193219994205E-2</v>
       </c>
-      <c r="AG16" s="30">
-        <f>AH101/Z3</f>
-        <v>17.040114428980104</v>
-      </c>
-      <c r="AH16" s="30">
-        <f>AH101/Z28</f>
-        <v>80.18377070256372</v>
-      </c>
-      <c r="AI16" s="31">
-        <f>AH101/Z106</f>
-        <v>110.62917362270451</v>
+      <c r="AG16" s="27">
+        <f>AH102/Z3</f>
+        <v>15.441153083314584</v>
+      </c>
+      <c r="AH16" s="27">
+        <f>AH102/Z28</f>
+        <v>72.659716187703239</v>
+      </c>
+      <c r="AI16" s="28">
+        <f>AH102/Z107</f>
+        <v>100.24827077942405</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z17" s="1">
         <v>29700000</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1">
         <v>2243000</v>
@@ -4762,13 +5192,22 @@
         <v>310200000</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF18" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4847,14 +5286,41 @@
       <c r="Z19" s="10">
         <v>1614400000</v>
       </c>
-      <c r="AF19" s="32">
+      <c r="AA19" s="35">
+        <v>2806000000</v>
+      </c>
+      <c r="AB19" s="35">
+        <v>3253000000</v>
+      </c>
+      <c r="AC19" s="35">
+        <v>3721000000</v>
+      </c>
+      <c r="AD19" s="35">
+        <v>4102000000</v>
+      </c>
+      <c r="AE19" s="35">
+        <v>5126000000</v>
+      </c>
+      <c r="AF19" s="26">
         <f>Z40-Z56-Z61</f>
         <v>6717300000</v>
       </c>
+      <c r="AG19" s="27">
+        <f>AH102/AA3</f>
+        <v>13.458179396974366</v>
+      </c>
+      <c r="AH19" s="27">
+        <f>AH102/AA28</f>
+        <v>48.231898953313255</v>
+      </c>
+      <c r="AI19" s="28">
+        <f>AH102/AA107</f>
+        <v>61.040624342439642</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4950,16 +5416,36 @@
         <v>0.47393364928909953</v>
       </c>
       <c r="Z20" s="15">
-        <f t="shared" ref="Z20" si="6">(Z19/Y19)-1</f>
+        <f t="shared" ref="Z20:AE20" si="6">(Z19/Y19)-1</f>
         <v>-0.25842903077629764</v>
       </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="6"/>
+        <v>0.73810703666997024</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="6"/>
+        <v>0.1593014967925872</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" si="6"/>
+        <v>0.14386719950814641</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" si="6"/>
+        <v>0.10239183015318454</v>
+      </c>
+      <c r="AE20" s="16">
+        <f t="shared" si="6"/>
+        <v>0.24963432471964886</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2">
         <v>-1.5867</v>
@@ -5033,8 +5519,37 @@
       <c r="Z21" s="2">
         <v>0.25950000000000001</v>
       </c>
+      <c r="AA21" s="36">
+        <f>AA19/AA3</f>
+        <v>0.39305224821403556</v>
+      </c>
+      <c r="AB21" s="36">
+        <f t="shared" ref="AB21:AE21" si="7">AB19/AB3</f>
+        <v>0.39772588335982395</v>
+      </c>
+      <c r="AC21" s="36">
+        <f t="shared" si="7"/>
+        <v>0.40388581352436775</v>
+      </c>
+      <c r="AD21" s="36">
+        <f t="shared" si="7"/>
+        <v>0.40188106201626334</v>
+      </c>
+      <c r="AE21" s="36">
+        <f t="shared" si="7"/>
+        <v>0.44674917204113646</v>
+      </c>
+      <c r="AG21" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI21" s="19" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5113,13 +5628,25 @@
       <c r="Z22" s="10">
         <v>1577100000</v>
       </c>
+      <c r="AG22" s="17">
+        <f>SUM(AA29:AE29)/5</f>
+        <v>0.22262895720521989</v>
+      </c>
+      <c r="AH22" s="29">
+        <f>(-1*Z98)/AH102</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="42">
+        <f>AA107/AH102</f>
+        <v>1.6382532301602477E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2">
         <v>-1.9180999999999999</v>
@@ -5194,15 +5721,15 @@
         <v>0.2535</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1">
         <v>-108000</v>
@@ -5274,27 +5801,27 @@
         <v>29700000</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25" s="10">
         <v>24204000</v>
@@ -5354,27 +5881,27 @@
         <v>1606800000</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H26" s="2">
         <v>0.1744</v>
@@ -5434,27 +5961,27 @@
         <v>0.25819999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" s="1">
         <v>726000</v>
@@ -5514,7 +6041,7 @@
         <v>262400000</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5593,10 +6120,25 @@
       <c r="Z28" s="11">
         <v>1322300000</v>
       </c>
+      <c r="AA28" s="37">
+        <v>1992000000</v>
+      </c>
+      <c r="AB28" s="37">
+        <v>2312000000</v>
+      </c>
+      <c r="AC28" s="37">
+        <v>2685000000</v>
+      </c>
+      <c r="AD28" s="37">
+        <v>2942000000</v>
+      </c>
+      <c r="AE28" s="37">
+        <v>3498000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5612,96 +6154,116 @@
         <v>-9.8418182799762444E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:W29" si="7">(F28/E28)-1</f>
+        <f t="shared" ref="F29:W29" si="8">(F28/E28)-1</f>
         <v>0.10305389221556882</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.4776070788773682</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.4397796944819703</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0094556606184515</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.23466547687339323</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0062323024818167</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.41358268125116759</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13846756234246138</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.64140219942735777</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.29675222629649034</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.32619672793375076</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1931160523910975E-2</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.37585692995529063</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.40592168099331416</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.24983016304347827</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.10313901345291476</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.70893939393939398</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.22289210036350737</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" ref="X29" si="8">(X28/W28)-1</f>
+        <f t="shared" ref="X29" si="9">(X28/W28)-1</f>
         <v>-0.23105923294424713</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" ref="Y29" si="9">(Y28/X28)-1</f>
+        <f t="shared" ref="Y29" si="10">(Y28/X28)-1</f>
         <v>0.60720346973411288</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" ref="Z29" si="10">(Z28/Y28)-1</f>
+        <f t="shared" ref="Z29:AE29" si="11">(Z28/Y28)-1</f>
         <v>-0.22427548985099144</v>
       </c>
+      <c r="AA29" s="16">
+        <f t="shared" si="11"/>
+        <v>0.50646600620131599</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" si="11"/>
+        <v>0.1606425702811245</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" si="11"/>
+        <v>0.16133217993079585</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" si="11"/>
+        <v>9.5716945996275671E-2</v>
+      </c>
+      <c r="AE29" s="16">
+        <f t="shared" si="11"/>
+        <v>0.18898708361658745</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2">
         <v>-1.8068</v>
@@ -5775,8 +6337,28 @@
       <c r="Z30" s="2">
         <v>0.21249999999999999</v>
       </c>
+      <c r="AA30" s="38">
+        <f>AA28/AA3</f>
+        <v>0.2790306765653453</v>
+      </c>
+      <c r="AB30" s="38">
+        <f t="shared" ref="AB30:AE30" si="12">AB28/AB3</f>
+        <v>0.28267514366059421</v>
+      </c>
+      <c r="AC30" s="38">
+        <f t="shared" si="12"/>
+        <v>0.29143601432758059</v>
+      </c>
+      <c r="AD30" s="38">
+        <f t="shared" si="12"/>
+        <v>0.2882335652003527</v>
+      </c>
+      <c r="AE30" s="38">
+        <f t="shared" si="12"/>
+        <v>0.30486316890360815</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5855,8 +6437,23 @@
       <c r="Z31" s="12">
         <v>3.71</v>
       </c>
+      <c r="AA31" s="39">
+        <v>5.67</v>
+      </c>
+      <c r="AB31" s="39">
+        <v>6.58</v>
+      </c>
+      <c r="AC31" s="39">
+        <v>7.64</v>
+      </c>
+      <c r="AD31" s="39">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="AE31" s="39">
+        <v>9.9499999999999993</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6098,7 +6695,7 @@
     </row>
     <row r="35" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6106,95 +6703,95 @@
         <v>0.33668582481348441</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:W35" si="11">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:W35" si="13">(D34-C34)/C34</f>
         <v>3.9191043409917508</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.50508488821650699</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7953371492391457E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.29606670689560588</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.48040294590705157</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7.182067703568161E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.613849765258216E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.4361431234085004E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.3628302708797826E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.8476328768495105E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.7930110955235302E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2.4813895781637717E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.2388059701492536E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2.4146201676128683E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-6.0028314950187317E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.3050397877984082E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.6939313984168866E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.3570822731128074E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.1496130696474634E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.8922558922558923E-3</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" ref="X35" si="12">(X34-W34)/W34</f>
+        <f t="shared" ref="X35" si="14">(X34-W34)/W34</f>
         <v>6.6945606694560665E-3</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" ref="Y35" si="13">(Y34-X34)/X34</f>
+        <f t="shared" ref="Y35" si="15">(Y34-X34)/X34</f>
         <v>1.6348018841784429E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" ref="Z35" si="14">(Z34-Y34)/Y34</f>
+        <f t="shared" ref="Z35" si="16">(Z34-Y34)/Y34</f>
         <v>0</v>
       </c>
     </row>
@@ -6203,79 +6800,79 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="21" x14ac:dyDescent="0.25">
@@ -6283,79 +6880,79 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -6363,10 +6960,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1">
         <v>22657000</v>
@@ -6443,10 +7040,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1">
         <v>66784000</v>
@@ -6515,7 +7112,7 @@
         <v>2940000000</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -6523,10 +7120,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1">
         <v>89441000</v>
@@ -6603,10 +7200,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1">
         <v>6444000</v>
@@ -6683,10 +7280,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1">
         <v>6076000</v>
@@ -6763,10 +7360,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1">
         <v>1705000</v>
@@ -6835,7 +7432,7 @@
         <v>133900000</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -6843,10 +7440,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10">
         <v>103666000</v>
@@ -6923,10 +7520,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1">
         <v>4669000</v>
@@ -7003,28 +7600,28 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1">
         <v>118240000</v>
@@ -7083,13 +7680,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1">
         <v>3308000</v>
@@ -7155,7 +7752,7 @@
         <v>70500000</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -7163,13 +7760,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1">
         <v>3308000</v>
@@ -7243,25 +7840,25 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1">
         <v>74000000</v>
@@ -7315,7 +7912,7 @@
         <v>4415500000</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -7323,25 +7920,25 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1">
         <v>35759000</v>
@@ -7403,19 +8000,19 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1">
         <v>4086000</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1">
         <v>1563000</v>
@@ -7439,16 +8036,16 @@
         <v>491000</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R51" s="1">
         <v>52200000</v>
@@ -7483,10 +8080,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1">
         <v>8755000</v>
@@ -7563,79 +8160,79 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7643,10 +8240,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11">
         <v>112421000</v>
@@ -7723,10 +8320,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1">
         <v>7128000</v>
@@ -7795,7 +8392,7 @@
         <v>121200000</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -7803,10 +8400,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1">
         <v>2019000</v>
@@ -7824,52 +8421,52 @@
         <v>609000</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1">
         <v>20400000</v>
@@ -7883,46 +8480,46 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1">
         <v>5800000</v>
@@ -7963,13 +8560,13 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1">
         <v>3870000</v>
@@ -8043,10 +8640,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1">
         <v>10683000</v>
@@ -8123,10 +8720,10 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10">
         <v>19830000</v>
@@ -8203,10 +8800,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>1861000</v>
@@ -8221,58 +8818,58 @@
         <v>695000</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
@@ -8283,64 +8880,64 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1">
         <v>1066000</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1">
         <v>33000000</v>
@@ -8363,79 +8960,79 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8443,19 +9040,19 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1">
         <v>1148000</v>
@@ -8515,7 +9112,7 @@
         <v>416900000</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8523,10 +9120,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1">
         <v>1861000</v>
@@ -8595,7 +9192,7 @@
         <v>453700000</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8603,79 +9200,79 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8683,10 +9280,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10">
         <v>21691000</v>
@@ -8763,10 +9360,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1">
         <v>36000</v>
@@ -8799,25 +9396,25 @@
         <v>38000</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U68" s="1">
         <v>100000</v>
@@ -8835,7 +9432,7 @@
         <v>400000</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8843,10 +9440,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1">
         <v>-93670000</v>
@@ -8915,7 +9512,7 @@
         <v>4760900000</v>
       </c>
       <c r="Z69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8923,10 +9520,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1">
         <v>-5181000</v>
@@ -8995,7 +9592,7 @@
         <v>-24200000</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -9003,10 +9600,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1">
         <v>189545000</v>
@@ -9075,7 +9672,7 @@
         <v>7164000000</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -9083,10 +9680,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10">
         <v>90730000</v>
@@ -9163,10 +9760,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11">
         <v>112421000</v>
@@ -9243,79 +9840,79 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="21" x14ac:dyDescent="0.25">
@@ -9323,79 +9920,79 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -9403,7 +10000,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1">
         <v>-18415000</v>
@@ -9483,7 +10080,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1">
         <v>2243000</v>
@@ -9563,25 +10160,25 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1">
         <v>-40758000</v>
@@ -9643,37 +10240,37 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1">
         <v>96981000</v>
@@ -9720,106 +10317,106 @@
     </row>
     <row r="80" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:Z80" si="15">B79/B3</f>
+        <f t="shared" ref="B80:Z80" si="17">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.2172542787843773E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.3227176220806789E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.7619074716895234E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.0359831099687908E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.4566244315924235E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.9232537411455639E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.0416037577587659E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.5670758763496526E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.6828597909808565E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.0135868105901944E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.4980462208328685E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.0721365638766524E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.8667624034605352E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.2478865995949988E-2</v>
       </c>
     </row>
@@ -9828,7 +10425,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1">
         <v>95000</v>
@@ -9908,37 +10505,37 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1">
         <v>-35275000</v>
@@ -9983,12 +10580,12 @@
         <v>-159300000</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1">
         <v>-1602000</v>
@@ -10062,47 +10659,43 @@
       <c r="Z83" s="1">
         <v>-546600000</v>
       </c>
-      <c r="AG83" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH83" s="62"/>
     </row>
-    <row r="84" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1">
         <v>7040000</v>
@@ -10146,20 +10739,20 @@
       <c r="Z84" s="1">
         <v>21300000</v>
       </c>
-      <c r="AG84" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH84" s="64"/>
+      <c r="AG84" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH84" s="70"/>
     </row>
-    <row r="85" spans="1:34" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1">
         <v>83836000</v>
@@ -10228,28 +10821,25 @@
         <v>147700000</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG85" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH85" s="24">
-        <f>Z17</f>
-        <v>29700000</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AG85" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH85" s="71"/>
     </row>
     <row r="86" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1">
         <v>150000</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1">
         <v>-87000</v>
@@ -10315,14 +10905,14 @@
         <v>56100000</v>
       </c>
       <c r="Z86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG86" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH86" s="24">
-        <f>Z56</f>
-        <v>24200000</v>
+        <v>91</v>
+      </c>
+      <c r="AG86" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH86" s="46">
+        <f>Z17</f>
+        <v>29700000</v>
       </c>
     </row>
     <row r="87" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -10330,7 +10920,7 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10">
         <v>-15927000</v>
@@ -10404,12 +10994,12 @@
       <c r="Z87" s="10">
         <v>1490800000</v>
       </c>
-      <c r="AG87" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH87" s="24">
-        <f>Z61</f>
-        <v>0</v>
+      <c r="AG87" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH87" s="46">
+        <f>Z56</f>
+        <v>24200000</v>
       </c>
     </row>
     <row r="88" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -10417,7 +11007,7 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1">
         <v>-931000</v>
@@ -10458,29 +11048,29 @@
       <c r="O88" s="1">
         <v>-82900000</v>
       </c>
-      <c r="P88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W88" s="1" t="s">
-        <v>92</v>
+      <c r="P88" s="1">
+        <v>-141800000</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>-104600000</v>
+      </c>
+      <c r="R88" s="1">
+        <v>-105600000</v>
+      </c>
+      <c r="S88" s="1">
+        <v>-81000000</v>
+      </c>
+      <c r="T88" s="1">
+        <v>-53900000</v>
+      </c>
+      <c r="U88" s="1">
+        <v>-190700000</v>
+      </c>
+      <c r="V88" s="1">
+        <v>-187400000</v>
+      </c>
+      <c r="W88" s="1">
+        <v>-425600000</v>
       </c>
       <c r="X88" s="1">
         <v>-341500000</v>
@@ -10491,124 +11081,124 @@
       <c r="Z88" s="1">
         <v>-532400000</v>
       </c>
-      <c r="AG88" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH88" s="34">
-        <f>AH85/(AH86+AH87)</f>
-        <v>1.2272727272727273</v>
+      <c r="AG88" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH88" s="46">
+        <f>Z61</f>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:Z89" si="16">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:Z89" si="18">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.1346153846153841E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.13352614182692307</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.1069610821899251</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.0364333120435422E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.7542950640850831E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.16166077102079926</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.13219963226561332</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.8443445081866043E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.9956526659876035E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.1211232125488188</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.0767558032557537E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.7940552016985137E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.7174642918113012E-2</v>
       </c>
-      <c r="P89" s="15" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q89" s="15" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R89" s="15" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S89" s="15" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T89" s="15" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U89" s="15" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V89" s="15" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W89" s="15" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
+      <c r="P89" s="15">
+        <f t="shared" si="18"/>
+        <v>6.5081696346612816E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="18"/>
+        <v>4.6178976645622712E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="18"/>
+        <v>4.9537927475723602E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="18"/>
+        <v>3.3970810266733771E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="18"/>
+        <v>1.9930483656263865E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="18"/>
+        <v>6.0947936974655628E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="18"/>
+        <v>5.0319531711508513E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="18"/>
+        <v>9.5031818689293293E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7.8354441997063137E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.1907847498292499E-2</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.5564591302111789E-2</v>
       </c>
-      <c r="AG89" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH89" s="24">
-        <f>Z27</f>
-        <v>262400000</v>
+      <c r="AG89" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH89" s="47">
+        <f>AH86/(AH87+AH88)</f>
+        <v>1.2272727272727273</v>
       </c>
     </row>
     <row r="90" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -10616,16 +11206,16 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1">
         <v>-40000</v>
@@ -10634,46 +11224,46 @@
         <v>-8461000</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1">
         <v>-84300000</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1">
         <v>-87900000</v>
@@ -10688,14 +11278,14 @@
         <v>-8700000</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG90" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH90" s="24">
-        <f>Z25</f>
-        <v>1606800000</v>
+        <v>91</v>
+      </c>
+      <c r="AG90" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH90" s="46">
+        <f>Z27</f>
+        <v>262400000</v>
       </c>
     </row>
     <row r="91" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -10703,7 +11293,7 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1">
         <v>-38292000</v>
@@ -10777,12 +11367,12 @@
       <c r="Z91" s="1">
         <v>-1399500000</v>
       </c>
-      <c r="AG91" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH91" s="34">
-        <f>AH89/AH90</f>
-        <v>0.1633059497137167</v>
+      <c r="AG91" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH91" s="46">
+        <f>Z25</f>
+        <v>1606800000</v>
       </c>
     </row>
     <row r="92" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -10790,7 +11380,7 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1">
         <v>28910000</v>
@@ -10864,23 +11454,23 @@
       <c r="Z92" s="1">
         <v>3315500000</v>
       </c>
-      <c r="AG92" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH92" s="36">
-        <f>AH88*(1-AH91)</f>
-        <v>1.0268517889877113</v>
+      <c r="AG92" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH92" s="47">
+        <f>AH90/AH91</f>
+        <v>0.1633059497137167</v>
       </c>
     </row>
-    <row r="93" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>-3000000</v>
@@ -10901,22 +11491,22 @@
         <v>-1156000</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P93" s="1">
         <v>-141800000</v>
@@ -10943,25 +11533,28 @@
         <v>-425600000</v>
       </c>
       <c r="X93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z93" s="1">
         <v>-12800000</v>
       </c>
-      <c r="AG93" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH93" s="64"/>
+      <c r="AG93" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH93" s="47">
+        <f>AH89*(1-AH92)</f>
+        <v>1.0268517889877113</v>
+      </c>
     </row>
-    <row r="94" spans="1:34" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10">
         <v>-10313000</v>
@@ -11035,98 +11628,96 @@
       <c r="Z94" s="10">
         <v>1370800000</v>
       </c>
-      <c r="AG94" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH94" s="37">
-        <v>4.095E-2</v>
-      </c>
+      <c r="AG94" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH94" s="71"/>
     </row>
     <row r="95" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG95" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH95" s="38" cm="1">
-        <f t="array" ref="AH95">_FV(A1,"Beta")</f>
-        <v>1.3101</v>
+        <v>91</v>
+      </c>
+      <c r="AG95" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH95" s="48">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11134,7 +11725,7 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1">
         <v>19398000</v>
@@ -11194,25 +11785,26 @@
         <v>415500000</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG96" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH96" s="37">
-        <v>8.4000000000000005E-2</v>
+        <v>91</v>
+      </c>
+      <c r="AG96" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH96" s="49" cm="1">
+        <f t="array" ref="AH96">_FV(A1,"Beta")</f>
+        <v>1.3008</v>
       </c>
     </row>
     <row r="97" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11220,7 +11812,7 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1">
         <v>-43000</v>
@@ -11238,19 +11830,19 @@
         <v>-6000</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1">
         <v>-72000</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1">
         <v>-150000000</v>
@@ -11280,7 +11872,7 @@
         <v>-2274000000</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W97" s="1">
         <v>-269500000</v>
@@ -11289,109 +11881,111 @@
         <v>-134300000</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z97" s="1">
         <v>-2607400000</v>
       </c>
-      <c r="AG97" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH97" s="36">
-        <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>9.7349805000000011E-2</v>
+      <c r="AG97" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH97" s="50">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG98" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH98" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="Z98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH98" s="47">
+        <f>(AH95)+((AH96)*(AH97-AH95))</f>
+        <v>9.4521984000000003E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:34" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1">
         <v>822000</v>
@@ -11465,20 +12059,17 @@
       <c r="Z99" s="1">
         <v>35100000</v>
       </c>
-      <c r="AG99" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH99" s="24">
-        <f>AH86+AH87</f>
-        <v>24200000</v>
-      </c>
+      <c r="AG99" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH99" s="71"/>
     </row>
     <row r="100" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10">
         <v>20177000</v>
@@ -11552,12 +12143,12 @@
       <c r="Z100" s="10">
         <v>-2572300000</v>
       </c>
-      <c r="AG100" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH100" s="34">
-        <f>AH99/AH103</f>
-        <v>2.2819166591231404E-4</v>
+      <c r="AG100" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH100" s="46">
+        <f>AH87+AH88</f>
+        <v>24200000</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11565,16 +12156,16 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1">
         <v>91000</v>
@@ -11610,7 +12201,7 @@
         <v>200000</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="1">
         <v>-600000</v>
@@ -11619,7 +12210,7 @@
         <v>-1500000</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U101" s="1">
         <v>2100000</v>
@@ -11639,12 +12230,12 @@
       <c r="Z101" s="1">
         <v>5400000</v>
       </c>
-      <c r="AG101" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH101" s="39" cm="1">
-        <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
-        <v>106027000000</v>
+      <c r="AG101" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH101" s="47">
+        <f>AH100/AH104</f>
+        <v>2.5181540511294727E-4</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11652,7 +12243,7 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10">
         <v>-6063000</v>
@@ -11726,12 +12317,12 @@
       <c r="Z102" s="10">
         <v>294700000</v>
       </c>
-      <c r="AG102" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH102" s="34">
-        <f>AH101/AH103</f>
-        <v>0.99977180833408763</v>
+      <c r="AG102" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH102" s="51" cm="1">
+        <f t="array" ref="AH102">_FV(A1,"Market cap",TRUE)</f>
+        <v>96077942715</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11739,7 +12330,7 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1">
         <v>10169000</v>
@@ -11813,20 +12404,20 @@
       <c r="Z103" s="1">
         <v>1306000000</v>
       </c>
-      <c r="AG103" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH103" s="40">
-        <f>AH99+AH101</f>
-        <v>106051200000</v>
+      <c r="AG103" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH103" s="47">
+        <f>AH102/AH104</f>
+        <v>0.99974818459488701</v>
       </c>
     </row>
-    <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:34" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11">
         <v>4106000</v>
@@ -11900,408 +12491,579 @@
       <c r="Z104" s="11">
         <v>1600700000</v>
       </c>
-      <c r="AG104" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH104" s="64"/>
+      <c r="AA104" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB104" s="73"/>
+      <c r="AC104" s="73"/>
+      <c r="AD104" s="73"/>
+      <c r="AE104" s="73"/>
+      <c r="AF104" s="57"/>
+      <c r="AG104" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH104" s="52">
+        <f>AH100+AH102</f>
+        <v>96102142715</v>
+      </c>
     </row>
-    <row r="105" spans="1:34" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>163</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:Z105" si="19">(B22*(1-$AH$92))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="C105" s="1">
+        <f t="shared" si="19"/>
+        <v>-14949531.989046551</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="19"/>
+        <v>-16475033.358227532</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="19"/>
+        <v>-24347334.826985311</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="19"/>
+        <v>-18498117.00273836</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="19"/>
+        <v>-11587925.317401046</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="19"/>
+        <v>1839526.7612646259</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="19"/>
+        <v>24436123.226288274</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="19"/>
+        <v>78862289.768483937</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="19"/>
+        <v>163969801.34428677</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="19"/>
+        <v>169246795.12073684</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="19"/>
+        <v>334996965.6460045</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="19"/>
+        <v>425932536.71894449</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="19"/>
+        <v>525035026.13890958</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="19"/>
+        <v>585201045.5563854</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="19"/>
+        <v>653981677.86905646</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="19"/>
+        <v>438830918.59596711</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="19"/>
+        <v>535153597.21184969</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="19"/>
+        <v>826043216.33059502</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="19"/>
+        <v>882377545.43191433</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="19"/>
+        <v>555230843.91336823</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="19"/>
+        <v>605935972.11849642</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="19"/>
+        <v>539861413.99054003</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="19"/>
+        <v>1112219865.571322</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="19"/>
+        <v>605650186.70649743</v>
+      </c>
+      <c r="AA105" s="68">
+        <f>AA107/AA3</f>
+        <v>0.22047905869169351</v>
+      </c>
+      <c r="AB105" s="68">
+        <f>AB107/AB3</f>
+        <v>0.24770754370949993</v>
+      </c>
+      <c r="AC105" s="68">
+        <f>AC107/AC3</f>
+        <v>0.27113860848800608</v>
+      </c>
+      <c r="AD105" s="68">
+        <f>AD107/AD3</f>
+        <v>0.28333496619966692</v>
+      </c>
+      <c r="AE105" s="68">
+        <f>AE107/AE3</f>
+        <v>0.33161931322991112</v>
+      </c>
+      <c r="AF105" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG105" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH105" s="71"/>
+    </row>
+    <row r="106" spans="1:34" ht="20" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:Z106" si="20">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="20"/>
         <v>-2.9600189820856548E-2</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f t="shared" si="20"/>
         <v>0.47197261446298677</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f t="shared" si="20"/>
         <v>-0.17209302325581399</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
+      <c r="G106" s="15">
+        <f t="shared" si="20"/>
         <v>-0.4793840288924559</v>
       </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:W105" si="17">(H106/G106)-1</f>
+      <c r="H106" s="15">
+        <f t="shared" si="20"/>
         <v>-1.7588399653145776</v>
       </c>
-      <c r="I105" s="15">
-        <f t="shared" si="17"/>
+      <c r="I106" s="15">
+        <f t="shared" si="20"/>
         <v>4.1717877094972069</v>
       </c>
-      <c r="J105" s="15">
-        <f t="shared" si="17"/>
+      <c r="J106" s="15">
+        <f t="shared" si="20"/>
         <v>1.007978788697125</v>
       </c>
-      <c r="K105" s="15">
-        <f t="shared" si="17"/>
+      <c r="K106" s="15">
+        <f t="shared" si="20"/>
         <v>1.2212712890171291</v>
       </c>
-      <c r="L105" s="15">
-        <f t="shared" si="17"/>
+      <c r="L106" s="15">
+        <f t="shared" si="20"/>
         <v>-5.1838397181858231E-2</v>
       </c>
-      <c r="M105" s="15">
-        <f t="shared" si="17"/>
+      <c r="M106" s="15">
+        <f t="shared" si="20"/>
         <v>0.92520114708989798</v>
       </c>
-      <c r="N105" s="15">
-        <f t="shared" si="17"/>
+      <c r="N106" s="15">
+        <f t="shared" si="20"/>
         <v>0.30262122367996525</v>
       </c>
-      <c r="O105" s="15">
-        <f t="shared" si="17"/>
+      <c r="O106" s="15">
+        <f t="shared" si="20"/>
         <v>0.37662037037037033</v>
       </c>
-      <c r="P105" s="15">
-        <f t="shared" si="17"/>
+      <c r="P106" s="15">
+        <f t="shared" si="20"/>
         <v>0.13065411131663018</v>
       </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="17"/>
+      <c r="Q106" s="15">
+        <f t="shared" si="20"/>
         <v>0.15318262938726956</v>
       </c>
-      <c r="R105" s="15">
-        <f t="shared" si="17"/>
+      <c r="R106" s="15">
+        <f t="shared" si="20"/>
         <v>-0.27843693577508388</v>
       </c>
-      <c r="S105" s="15">
-        <f t="shared" si="17"/>
+      <c r="S106" s="15">
+        <f t="shared" si="20"/>
         <v>0.23485254691689006</v>
       </c>
-      <c r="T105" s="15">
-        <f t="shared" si="17"/>
+      <c r="T106" s="15">
+        <f t="shared" si="20"/>
         <v>0.43146620350267773</v>
       </c>
-      <c r="U105" s="15">
-        <f t="shared" si="17"/>
+      <c r="U106" s="15">
+        <f t="shared" si="20"/>
         <v>-3.6198179979777589E-2</v>
       </c>
-      <c r="V105" s="15">
-        <f t="shared" si="17"/>
+      <c r="V106" s="15">
+        <f t="shared" si="20"/>
         <v>3.0423835501468766E-2</v>
       </c>
-      <c r="W105" s="15">
-        <f t="shared" si="17"/>
+      <c r="W106" s="15">
+        <f t="shared" si="20"/>
         <v>0.19385053960496834</v>
       </c>
-      <c r="X105" s="15">
-        <f t="shared" ref="X105" si="18">(X106/W106)-1</f>
+      <c r="X106" s="15">
+        <f t="shared" si="20"/>
         <v>-2.4987207914037191E-2</v>
       </c>
-      <c r="Y105" s="15">
-        <f t="shared" ref="Y105" si="19">(Y106/X106)-1</f>
+      <c r="Y106" s="15">
+        <f t="shared" si="20"/>
         <v>0.51832414939211047</v>
       </c>
-      <c r="Z105" s="15">
-        <f t="shared" ref="Z105" si="20">(Z106/Y106)-1</f>
+      <c r="Z106" s="15">
+        <f t="shared" si="20"/>
         <v>-0.44789446396681831</v>
       </c>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH105" s="26">
-        <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>9.7561909606194958E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-16858000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-16359000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-24080000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-19936000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-10379000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>7876000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>40733000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>81791000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>181680000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>172262000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>331639000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>432000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>594700000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>672400000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>775400000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>559500000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>690900000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>989000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>953200000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>982200000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>1172600000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>1143300000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>1735900000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>958400000</v>
-      </c>
-      <c r="AA106" s="41">
-        <f>Z106*(1+$AH$106)</f>
-        <v>1085289996.0910361</v>
-      </c>
-      <c r="AB106" s="41">
-        <f t="shared" ref="AB106:AE106" si="21">AA106*(1+$AH$106)</f>
-        <v>1228979941.1678641</v>
-      </c>
-      <c r="AC106" s="41">
-        <f t="shared" si="21"/>
-        <v>1391694110.544692</v>
-      </c>
-      <c r="AD106" s="41">
-        <f t="shared" si="21"/>
-        <v>1575951268.5652823</v>
-      </c>
-      <c r="AE106" s="41">
-        <f t="shared" si="21"/>
-        <v>1784603658.2855577</v>
-      </c>
-      <c r="AF106" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG106" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH106" s="44">
-        <f>(SUM(AA4:AE4)/5)</f>
-        <v>0.13239774216510444</v>
+      <c r="AA106" s="44">
+        <f>(AA107/Z107)-1</f>
+        <v>0.64232053422370616</v>
+      </c>
+      <c r="AB106" s="44">
+        <f>(AB107/AA107)-1</f>
+        <v>0.28716645489199499</v>
+      </c>
+      <c r="AC106" s="44">
+        <f>(AC107/AB107)-1</f>
+        <v>0.23297137216189534</v>
+      </c>
+      <c r="AD106" s="44">
+        <f>(AD107/AC107)-1</f>
+        <v>0.15772618094475588</v>
+      </c>
+      <c r="AE106" s="44">
+        <f>(AE107/AD107)-1</f>
+        <v>0.31569847856154909</v>
+      </c>
+      <c r="AF106" s="45">
+        <f>SUM(AA106:AE106)/5</f>
+        <v>0.32717660415678029</v>
+      </c>
+      <c r="AG106" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH106" s="53">
+        <f>(AH101*AH93)+(AH103*AH98)</f>
+        <v>9.4756759007541852E-2</v>
       </c>
     </row>
     <row r="107" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="42"/>
-      <c r="AB107" s="42"/>
-      <c r="AC107" s="42"/>
-      <c r="AD107" s="42"/>
-      <c r="AE107" s="45">
-        <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>25209076768.653938</v>
-      </c>
-      <c r="AF107" s="46" t="s">
+      <c r="A107" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-16858000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-16359000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-24080000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-19936000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-10379000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>7876000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>40733000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>81791000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>181680000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>172262000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>331639000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>432000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>594700000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>672400000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>775400000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>559500000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>690900000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>989000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>953200000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>982200000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>1172600000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1143300000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>1735900000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>958400000</v>
+      </c>
+      <c r="AA107" s="59">
+        <v>1574000000</v>
+      </c>
+      <c r="AB107" s="59">
+        <v>2026000000</v>
+      </c>
+      <c r="AC107" s="59">
+        <v>2498000000</v>
+      </c>
+      <c r="AD107" s="59">
+        <v>2892000000</v>
+      </c>
+      <c r="AE107" s="59">
+        <v>3805000000</v>
+      </c>
+      <c r="AF107" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG107" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH107" s="33">
+        <f>(SUM(AA4:AE4)/5)</f>
+        <v>0.13029297899605763</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="AA108" s="58"/>
+      <c r="AB108" s="58"/>
+      <c r="AC108" s="58"/>
+      <c r="AD108" s="58"/>
+      <c r="AE108" s="60">
+        <f>AE107*(1+AH108)/(AH109-AH108)</f>
+        <v>55910352709.740021</v>
+      </c>
+      <c r="AF108" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG108" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH108" s="34">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="AA109" s="60">
+        <f t="shared" ref="AA109:AC109" si="21">AA108+AA107</f>
+        <v>1574000000</v>
+      </c>
+      <c r="AB109" s="60">
+        <f t="shared" si="21"/>
+        <v>2026000000</v>
+      </c>
+      <c r="AC109" s="60">
+        <f t="shared" si="21"/>
+        <v>2498000000</v>
+      </c>
+      <c r="AD109" s="60">
+        <f>AD108+AD107</f>
+        <v>2892000000</v>
+      </c>
+      <c r="AE109" s="60">
+        <f>AE108+AE107</f>
+        <v>59715352709.740021</v>
+      </c>
+      <c r="AF109" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG109" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH109" s="33">
+        <f>AH106</f>
+        <v>9.4756759007541852E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="AA110" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="AG107" s="47" t="s">
+      <c r="AB110" s="72"/>
+      <c r="AC110" s="57"/>
+      <c r="AD110" s="57"/>
+      <c r="AE110" s="57"/>
+      <c r="AF110" s="57"/>
+    </row>
+    <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA111" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AH107" s="48">
-        <v>2.5000000000000001E-2</v>
-      </c>
+      <c r="AB111" s="51">
+        <f>NPV(AH109,AA109,AB109,AC109,AD109,AE109)</f>
+        <v>45020492325.795715</v>
+      </c>
+      <c r="AC111" s="57"/>
+      <c r="AD111" s="57"/>
+      <c r="AE111" s="57"/>
+      <c r="AF111" s="57"/>
     </row>
-    <row r="108" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA108" s="45">
-        <f t="shared" ref="AA108:AC108" si="22">AA107+AA106</f>
-        <v>1085289996.0910361</v>
-      </c>
-      <c r="AB108" s="45">
-        <f t="shared" si="22"/>
-        <v>1228979941.1678641</v>
-      </c>
-      <c r="AC108" s="45">
-        <f t="shared" si="22"/>
-        <v>1391694110.544692</v>
-      </c>
-      <c r="AD108" s="45">
-        <f>AD107+AD106</f>
-        <v>1575951268.5652823</v>
-      </c>
-      <c r="AE108" s="45">
-        <f>AE107+AE106</f>
-        <v>26993680426.939495</v>
-      </c>
-      <c r="AF108" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG108" s="49" t="s">
+    <row r="112" spans="1:34" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA112" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="AH108" s="50">
-        <f>AH105</f>
-        <v>9.7561909606194958E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB109" s="60"/>
-    </row>
-    <row r="110" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA110" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB110" s="39">
-        <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>21095540263.611828</v>
-      </c>
-    </row>
-    <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA111" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB111" s="39">
+      <c r="AB112" s="51">
         <f>Z40</f>
         <v>6741500000</v>
       </c>
+      <c r="AC112" s="57"/>
+      <c r="AD112" s="57"/>
+      <c r="AE112" s="57"/>
+      <c r="AF112" s="57"/>
     </row>
-    <row r="112" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA112" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB112" s="39">
-        <f>AH99</f>
+    <row r="113" spans="27:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA113" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB113" s="51">
+        <f>AH100</f>
         <v>24200000</v>
       </c>
+      <c r="AC113" s="57"/>
+      <c r="AD113" s="57"/>
+      <c r="AE113" s="57"/>
+      <c r="AF113" s="57"/>
     </row>
-    <row r="113" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA113" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB113" s="39">
-        <f>AB110+AB111-AB112</f>
-        <v>27812840263.611828</v>
-      </c>
+    <row r="114" spans="27:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA114" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB114" s="51">
+        <f>AB111+AB112-AB113</f>
+        <v>51737792325.795715</v>
+      </c>
+      <c r="AC114" s="57"/>
+      <c r="AD114" s="57"/>
+      <c r="AE114" s="57"/>
+      <c r="AF114" s="57"/>
     </row>
-    <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA114" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB114" s="52">
+    <row r="115" spans="27:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA115" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB115" s="62">
         <f>Z34*(1+(5*AF16))</f>
         <v>385298078.3654694</v>
       </c>
+      <c r="AC115" s="57"/>
+      <c r="AD115" s="57"/>
+      <c r="AE115" s="57"/>
+      <c r="AF115" s="57"/>
     </row>
-    <row r="115" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA115" s="53" t="s">
+    <row r="116" spans="27:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA116" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB116" s="64">
+        <f>AB114/AB115</f>
+        <v>134.27991269844983</v>
+      </c>
+      <c r="AC116" s="57"/>
+      <c r="AD116" s="57"/>
+      <c r="AE116" s="57"/>
+      <c r="AF116" s="57"/>
+    </row>
+    <row r="117" spans="27:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA117" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB117" s="65" cm="1">
+        <f t="array" ref="AB117">_FV(A1,"Price",TRUE)</f>
+        <v>273.45</v>
+      </c>
+      <c r="AC117" s="57"/>
+      <c r="AD117" s="57"/>
+      <c r="AE117" s="57"/>
+      <c r="AF117" s="57"/>
+    </row>
+    <row r="118" spans="27:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA118" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB118" s="66">
+        <f>AB116/AB117-1</f>
+        <v>-0.50894162479996408</v>
+      </c>
+      <c r="AC118" s="57"/>
+      <c r="AD118" s="57"/>
+      <c r="AE118" s="57"/>
+      <c r="AF118" s="57"/>
+    </row>
+    <row r="119" spans="27:32" ht="20" x14ac:dyDescent="0.2">
+      <c r="AA119" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="AB115" s="54">
-        <f>AB113/AB114</f>
-        <v>72.185255586014961</v>
-      </c>
-    </row>
-    <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA116" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB116" s="55" cm="1">
-        <f t="array" ref="AB116">_FV(A1,"Price",TRUE)</f>
-        <v>303.47000000000003</v>
-      </c>
-    </row>
-    <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA117" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB117" s="57">
-        <f>AB115/AB116-1</f>
-        <v>-0.76213380042173873</v>
-      </c>
-    </row>
-    <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA118" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB118" s="58" t="str">
-        <f>IF(AB115&gt;AB116,"BUY","SELL")</f>
+      <c r="AB119" s="67" t="str">
+        <f>IF(AB116&gt;AB117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="AC119" s="57"/>
+      <c r="AD119" s="57"/>
+      <c r="AE119" s="57"/>
+      <c r="AF119" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AA109:AB109"/>
-    <mergeCell ref="AG83:AH83"/>
+  <mergeCells count="7">
     <mergeCell ref="AG84:AH84"/>
-    <mergeCell ref="AG93:AH93"/>
-    <mergeCell ref="AG98:AH98"/>
-    <mergeCell ref="AG104:AH104"/>
+    <mergeCell ref="AG85:AH85"/>
+    <mergeCell ref="AA110:AB110"/>
+    <mergeCell ref="AG105:AH105"/>
+    <mergeCell ref="AG99:AH99"/>
+    <mergeCell ref="AG94:AH94"/>
+    <mergeCell ref="AA104:AE104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ISRG" display="ROIC.AI | ISRG" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -12356,8 +13118,9 @@
     <hyperlink ref="Z36" r:id="rId50" tooltip="https://www.sec.gov/Archives/edgar/data/1035267/000103526723000019/0001035267-23-000019-index.htm" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="Z74" r:id="rId51" tooltip="https://www.sec.gov/Archives/edgar/data/1035267/000103526723000019/0001035267-23-000019-index.htm" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="AA1" r:id="rId52" display="https://finbox.com/NASDAQGS:ISRG/explorer/revenue_proj" xr:uid="{84B2E81D-5BDB-394F-BB26-C8A74F3E102E}"/>
+    <hyperlink ref="AF107" r:id="rId53" xr:uid="{275A1EE1-D492-3B47-933F-2542B4C5B145}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId53"/>
+  <drawing r:id="rId54"/>
 </worksheet>
 </file>
--- a/Healthcare/Intuitive Surgical.xlsx
+++ b/Healthcare/Intuitive Surgical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BBDB0E-1741-B241-B633-A104A509BA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90BC9ED-42DB-984D-847C-3803A9AFE7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2681,13 +2681,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2703,14 +2705,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2720,6 +2722,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2846,12 +2850,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>358.07</v>
-    <v>206.77</v>
-    <v>1.3008</v>
-    <v>-2.0699999999999998</v>
-    <v>-7.5129999999999997E-3</v>
-    <v>-22.45</v>
-    <v>-8.2098999999999991E-2</v>
+    <v>222.65</v>
+    <v>1.3174999999999999</v>
+    <v>-0.53</v>
+    <v>-2.042E-3</v>
+    <v>0.5</v>
+    <v>1.931E-3</v>
     <v>USD</v>
     <v>Intuitive Surgical, Inc. develops, manufactures, and markets the da Vinci surgical system and the Ion endoluminal system. The Company's products and related services enable physicians and healthcare providers to access minimally invasive care. The systems consist of a surgeon console or consoles, a patient-side cart, a vision system, and instruments and accessories. Its da Vinci products consist of five categories, such as da Vinci surgical systems, da Vinci instruments and accessories, da Vinci Stapling, da Vinci Energy, and da Vinci Vision, including Firefly Fluorescence imaging systems and da Vinci Endoscopes. It also provides a suite of systems, learning, and services offerings. Its Ion endoluminal system extends its commercial offerings beyond surgery into diagnostic procedures, enabling minimally invasive biopsies in the lung. Its services include readiness support, maintenance support, perioperative consulting, customer hospital analytics, and market consulting optimization.</v>
     <v>12120</v>
@@ -2859,25 +2863,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1020 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>278.13</v>
+    <v>264.77</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45218.999931296094</v>
+    <v>45226.997544316408</v>
     <v>0</v>
-    <v>271.70999999999998</v>
-    <v>96077942715</v>
+    <v>257.01</v>
+    <v>91179500000</v>
     <v>INTUITIVE SURGICAL, INC.</v>
     <v>INTUITIVE SURGICAL, INC.</v>
-    <v>277.10000000000002</v>
-    <v>64.88</v>
-    <v>275.52</v>
-    <v>273.45</v>
-    <v>251</v>
-    <v>351354700</v>
+    <v>263.82</v>
+    <v>61.109900000000003</v>
+    <v>259.51</v>
+    <v>258.98</v>
+    <v>259.48</v>
+    <v>352071600</v>
     <v>ISRG</v>
     <v>INTUITIVE SURGICAL, INC. (XNAS:ISRG)</v>
-    <v>3022847</v>
-    <v>1803289</v>
+    <v>1861819</v>
+    <v>2243198</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -3465,10 +3469,10 @@
   <dimension ref="A1:AI119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z113" sqref="Z113"/>
+      <selection pane="bottomRight" activeCell="Y117" sqref="Y117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5024,15 +5028,15 @@
       </c>
       <c r="AG16" s="27">
         <f>AH102/Z3</f>
-        <v>15.441153083314584</v>
+        <v>14.65390054964482</v>
       </c>
       <c r="AH16" s="27">
         <f>AH102/Z28</f>
-        <v>72.659716187703239</v>
+        <v>68.955229524313694</v>
       </c>
       <c r="AI16" s="28">
         <f>AH102/Z107</f>
-        <v>100.24827077942405</v>
+        <v>95.137207846410689</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -5307,15 +5311,15 @@
       </c>
       <c r="AG19" s="27">
         <f>AH102/AA3</f>
-        <v>13.458179396974366</v>
+        <v>12.772026894523043</v>
       </c>
       <c r="AH19" s="27">
         <f>AH102/AA28</f>
-        <v>48.231898953313255</v>
+        <v>45.772841365461851</v>
       </c>
       <c r="AI19" s="28">
         <f>AH102/AA107</f>
-        <v>61.040624342439642</v>
+        <v>57.928526048284624</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5638,7 +5642,7 @@
       </c>
       <c r="AI22" s="42">
         <f>AA107/AH102</f>
-        <v>1.6382532301602477E-2</v>
+        <v>1.7262652240909414E-2</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11717,7 +11721,7 @@
       </c>
       <c r="AH95" s="48">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11804,7 +11808,7 @@
       </c>
       <c r="AH96" s="49" cm="1">
         <f t="array" ref="AH96">_FV(A1,"Beta")</f>
-        <v>1.3008</v>
+        <v>1.3174999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11977,7 +11981,7 @@
       </c>
       <c r="AH98" s="47">
         <f>(AH95)+((AH96)*(AH97-AH95))</f>
-        <v>9.4521984000000003E-2</v>
+        <v>9.5287125E-2</v>
       </c>
     </row>
     <row r="99" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12235,7 +12239,7 @@
       </c>
       <c r="AH101" s="47">
         <f>AH100/AH104</f>
-        <v>2.5181540511294727E-4</v>
+        <v>2.653401122980756E-4</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12322,7 +12326,7 @@
       </c>
       <c r="AH102" s="51" cm="1">
         <f t="array" ref="AH102">_FV(A1,"Market cap",TRUE)</f>
-        <v>96077942715</v>
+        <v>91179500000</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12409,7 +12413,7 @@
       </c>
       <c r="AH103" s="47">
         <f>AH102/AH104</f>
-        <v>0.99974818459488701</v>
+        <v>0.99973465988770194</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12504,7 +12508,7 @@
       </c>
       <c r="AH104" s="52">
         <f>AH100+AH102</f>
-        <v>96102142715</v>
+        <v>91203700000</v>
       </c>
     </row>
     <row r="105" spans="1:34" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -12769,7 +12773,7 @@
       </c>
       <c r="AH106" s="53">
         <f>(AH101*AH93)+(AH103*AH98)</f>
-        <v>9.4756759007541852E-2</v>
+        <v>9.5534306472555411E-2</v>
       </c>
     </row>
     <row r="107" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12884,7 +12888,7 @@
       <c r="AD108" s="58"/>
       <c r="AE108" s="60">
         <f>AE107*(1+AH108)/(AH109-AH108)</f>
-        <v>55910352709.740021</v>
+        <v>55294014998.467751</v>
       </c>
       <c r="AF108" s="61" t="s">
         <v>146</v>
@@ -12915,7 +12919,7 @@
       </c>
       <c r="AE109" s="60">
         <f>AE108+AE107</f>
-        <v>59715352709.740021</v>
+        <v>59099014998.467751</v>
       </c>
       <c r="AF109" s="61" t="s">
         <v>143</v>
@@ -12925,7 +12929,7 @@
       </c>
       <c r="AH109" s="33">
         <f>AH106</f>
-        <v>9.4756759007541852E-2</v>
+        <v>9.5534306472555411E-2</v>
       </c>
     </row>
     <row r="110" spans="1:34" ht="19" x14ac:dyDescent="0.2">
@@ -12944,7 +12948,7 @@
       </c>
       <c r="AB111" s="51">
         <f>NPV(AH109,AA109,AB109,AC109,AD109,AE109)</f>
-        <v>45020492325.795715</v>
+        <v>44482180157.388863</v>
       </c>
       <c r="AC111" s="57"/>
       <c r="AD111" s="57"/>
@@ -12983,7 +12987,7 @@
       </c>
       <c r="AB114" s="51">
         <f>AB111+AB112-AB113</f>
-        <v>51737792325.795715</v>
+        <v>51199480157.388863</v>
       </c>
       <c r="AC114" s="57"/>
       <c r="AD114" s="57"/>
@@ -13009,7 +13013,7 @@
       </c>
       <c r="AB116" s="64">
         <f>AB114/AB115</f>
-        <v>134.27991269844983</v>
+        <v>132.88278097464132</v>
       </c>
       <c r="AC116" s="57"/>
       <c r="AD116" s="57"/>
@@ -13022,7 +13026,7 @@
       </c>
       <c r="AB117" s="65" cm="1">
         <f t="array" ref="AB117">_FV(A1,"Price",TRUE)</f>
-        <v>273.45</v>
+        <v>258.98</v>
       </c>
       <c r="AC117" s="57"/>
       <c r="AD117" s="57"/>
@@ -13035,7 +13039,7 @@
       </c>
       <c r="AB118" s="66">
         <f>AB116/AB117-1</f>
-        <v>-0.50894162479996408</v>
+        <v>-0.48689944793172713</v>
       </c>
       <c r="AC118" s="57"/>
       <c r="AD118" s="57"/>

--- a/Healthcare/Intuitive Surgical.xlsx
+++ b/Healthcare/Intuitive Surgical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90BC9ED-42DB-984D-847C-3803A9AFE7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B25A36-B774-A149-8430-C7FE3D7314DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -894,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1058,6 +1058,9 @@
     <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1901,19 +1904,19 @@
                   <c:v>958400000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1574000000</c:v>
+                  <c:v>1522000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2026000000</c:v>
+                  <c:v>2013000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2498000000</c:v>
+                  <c:v>2476000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2892000000</c:v>
+                  <c:v>2854000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3805000000</c:v>
+                  <c:v>3515000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2686,13 +2689,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2709,7 +2709,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2721,9 +2721,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2851,11 +2848,11 @@
     <v>Powered by Refinitiv</v>
     <v>358.07</v>
     <v>222.65</v>
-    <v>1.3174999999999999</v>
-    <v>-0.53</v>
-    <v>-2.042E-3</v>
-    <v>0.5</v>
-    <v>1.931E-3</v>
+    <v>1.3136000000000001</v>
+    <v>-5.53</v>
+    <v>-1.9897000000000001E-2</v>
+    <v>0.57999999999999996</v>
+    <v>2.1290000000000002E-3</v>
     <v>USD</v>
     <v>Intuitive Surgical, Inc. develops, manufactures, and markets the da Vinci surgical system and the Ion endoluminal system. The Company's products and related services enable physicians and healthcare providers to access minimally invasive care. The systems consist of a surgeon console or consoles, a patient-side cart, a vision system, and instruments and accessories. Its da Vinci products consist of five categories, such as da Vinci surgical systems, da Vinci instruments and accessories, da Vinci Stapling, da Vinci Energy, and da Vinci Vision, including Firefly Fluorescence imaging systems and da Vinci Endoscopes. It also provides a suite of systems, learning, and services offerings. Its Ion endoluminal system extends its commercial offerings beyond surgery into diagnostic procedures, enabling minimally invasive biopsies in the lung. Its services include readiness support, maintenance support, perioperative consulting, customer hospital analytics, and market consulting optimization.</v>
     <v>12120</v>
@@ -2863,25 +2860,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1020 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>264.77</v>
+    <v>278.95</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45226.997544316408</v>
+    <v>45239.953806816404</v>
     <v>0</v>
-    <v>257.01</v>
-    <v>91179500000</v>
+    <v>271.89499999999998</v>
+    <v>95904303839</v>
     <v>INTUITIVE SURGICAL, INC.</v>
     <v>INTUITIVE SURGICAL, INC.</v>
-    <v>263.82</v>
-    <v>61.109900000000003</v>
-    <v>259.51</v>
-    <v>258.98</v>
-    <v>259.48</v>
+    <v>277.98</v>
+    <v>65.447500000000005</v>
+    <v>277.93</v>
+    <v>272.39999999999998</v>
+    <v>272.98</v>
     <v>352071600</v>
     <v>ISRG</v>
     <v>INTUITIVE SURGICAL, INC. (XNAS:ISRG)</v>
-    <v>1861819</v>
-    <v>2243198</v>
+    <v>1094908</v>
+    <v>2414079</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -3469,10 +3466,10 @@
   <dimension ref="A1:AI119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y117" sqref="Y117"/>
+      <selection pane="bottomRight" activeCell="AA121" sqref="AA121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5028,15 +5025,15 @@
       </c>
       <c r="AG16" s="27">
         <f>AH102/Z3</f>
-        <v>14.65390054964482</v>
+        <v>15.413246735720485</v>
       </c>
       <c r="AH16" s="27">
         <f>AH102/Z28</f>
-        <v>68.955229524313694</v>
+        <v>72.528400392497915</v>
       </c>
       <c r="AI16" s="28">
         <f>AH102/Z107</f>
-        <v>95.137207846410689</v>
+        <v>100.06709499060935</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -5311,15 +5308,15 @@
       </c>
       <c r="AG19" s="27">
         <f>AH102/AA3</f>
-        <v>12.772026894523043</v>
+        <v>13.433856820142877</v>
       </c>
       <c r="AH19" s="27">
         <f>AH102/AA28</f>
-        <v>45.772841365461851</v>
+        <v>48.144730842871489</v>
       </c>
       <c r="AI19" s="28">
         <f>AH102/AA107</f>
-        <v>57.928526048284624</v>
+        <v>63.012026175427067</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5642,7 +5639,7 @@
       </c>
       <c r="AI22" s="42">
         <f>AA107/AH102</f>
-        <v>1.7262652240909414E-2</v>
+        <v>1.5869986424749693E-2</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -10743,10 +10740,10 @@
       <c r="Z84" s="1">
         <v>21300000</v>
       </c>
-      <c r="AG84" s="69" t="s">
+      <c r="AG84" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="AH84" s="70"/>
+      <c r="AH84" s="71"/>
     </row>
     <row r="85" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10827,10 +10824,10 @@
       <c r="Z85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AG85" s="71" t="s">
+      <c r="AG85" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="AH85" s="71"/>
+      <c r="AH85" s="72"/>
     </row>
     <row r="86" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -11632,10 +11629,10 @@
       <c r="Z94" s="10">
         <v>1370800000</v>
       </c>
-      <c r="AG94" s="71" t="s">
+      <c r="AG94" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="AH94" s="71"/>
+      <c r="AH94" s="72"/>
     </row>
     <row r="95" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -11721,7 +11718,7 @@
       </c>
       <c r="AH95" s="48">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11808,7 +11805,7 @@
       </c>
       <c r="AH96" s="49" cm="1">
         <f t="array" ref="AH96">_FV(A1,"Beta")</f>
-        <v>1.3174999999999999</v>
+        <v>1.3136000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11981,7 +11978,7 @@
       </c>
       <c r="AH98" s="47">
         <f>(AH95)+((AH96)*(AH97-AH95))</f>
-        <v>9.5287125E-2</v>
+        <v>9.6007744000000006E-2</v>
       </c>
     </row>
     <row r="99" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12063,10 +12060,10 @@
       <c r="Z99" s="1">
         <v>35100000</v>
       </c>
-      <c r="AG99" s="71" t="s">
+      <c r="AG99" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="AH99" s="71"/>
+      <c r="AH99" s="72"/>
     </row>
     <row r="100" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -12239,7 +12236,7 @@
       </c>
       <c r="AH101" s="47">
         <f>AH100/AH104</f>
-        <v>2.653401122980756E-4</v>
+        <v>2.5227121274210284E-4</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12326,7 +12323,7 @@
       </c>
       <c r="AH102" s="51" cm="1">
         <f t="array" ref="AH102">_FV(A1,"Market cap",TRUE)</f>
-        <v>91179500000</v>
+        <v>95904303839</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -12413,7 +12410,7 @@
       </c>
       <c r="AH103" s="47">
         <f>AH102/AH104</f>
-        <v>0.99973465988770194</v>
+        <v>0.99974772878725793</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12495,20 +12492,20 @@
       <c r="Z104" s="11">
         <v>1600700000</v>
       </c>
-      <c r="AA104" s="73" t="s">
+      <c r="AA104" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="AB104" s="73"/>
-      <c r="AC104" s="73"/>
-      <c r="AD104" s="73"/>
-      <c r="AE104" s="73"/>
+      <c r="AB104" s="74"/>
+      <c r="AC104" s="74"/>
+      <c r="AD104" s="74"/>
+      <c r="AE104" s="74"/>
       <c r="AF104" s="57"/>
       <c r="AG104" s="31" t="s">
         <v>143</v>
       </c>
       <c r="AH104" s="52">
         <f>AH100+AH102</f>
-        <v>91203700000</v>
+        <v>95928503839</v>
       </c>
     </row>
     <row r="105" spans="1:34" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -12617,31 +12614,31 @@
       </c>
       <c r="AA105" s="68">
         <f>AA107/AA3</f>
-        <v>0.22047905869169351</v>
+        <v>0.21319512536769855</v>
       </c>
       <c r="AB105" s="68">
         <f>AB107/AB3</f>
-        <v>0.24770754370949993</v>
+        <v>0.24611810734808656</v>
       </c>
       <c r="AC105" s="68">
         <f>AC107/AC3</f>
-        <v>0.27113860848800608</v>
+        <v>0.26875067838923261</v>
       </c>
       <c r="AD105" s="68">
         <f>AD107/AD3</f>
-        <v>0.28333496619966692</v>
+        <v>0.27961203095914566</v>
       </c>
       <c r="AE105" s="68">
         <f>AE107/AE3</f>
-        <v>0.33161931322991112</v>
+        <v>0.30634477950148159</v>
       </c>
       <c r="AF105" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="AG105" s="71" t="s">
+      <c r="AG105" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="AH105" s="71"/>
+      <c r="AH105" s="72"/>
     </row>
     <row r="106" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -12746,34 +12743,34 @@
       </c>
       <c r="AA106" s="44">
         <f>(AA107/Z107)-1</f>
-        <v>0.64232053422370616</v>
+        <v>0.5880634390651085</v>
       </c>
       <c r="AB106" s="44">
         <f>(AB107/AA107)-1</f>
-        <v>0.28716645489199499</v>
+        <v>0.32260183968462552</v>
       </c>
       <c r="AC106" s="44">
         <f>(AC107/AB107)-1</f>
-        <v>0.23297137216189534</v>
+        <v>0.23000496770988565</v>
       </c>
       <c r="AD106" s="44">
         <f>(AD107/AC107)-1</f>
-        <v>0.15772618094475588</v>
+        <v>0.15266558966074317</v>
       </c>
       <c r="AE106" s="44">
         <f>(AE107/AD107)-1</f>
-        <v>0.31569847856154909</v>
+        <v>0.23160476524176588</v>
       </c>
       <c r="AF106" s="45">
         <f>SUM(AA106:AE106)/5</f>
-        <v>0.32717660415678029</v>
+        <v>0.30498812027242572</v>
       </c>
       <c r="AG106" s="32" t="s">
         <v>107</v>
       </c>
       <c r="AH106" s="53">
         <f>(AH101*AH93)+(AH103*AH98)</f>
-        <v>9.5534306472555411E-2</v>
+        <v>9.6242569156102825E-2</v>
       </c>
     </row>
     <row r="107" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -12856,19 +12853,19 @@
         <v>958400000</v>
       </c>
       <c r="AA107" s="59">
-        <v>1574000000</v>
+        <v>1522000000</v>
       </c>
       <c r="AB107" s="59">
-        <v>2026000000</v>
+        <v>2013000000</v>
       </c>
       <c r="AC107" s="59">
-        <v>2498000000</v>
+        <v>2476000000</v>
       </c>
       <c r="AD107" s="59">
-        <v>2892000000</v>
+        <v>2854000000</v>
       </c>
       <c r="AE107" s="59">
-        <v>3805000000</v>
+        <v>3515000000</v>
       </c>
       <c r="AF107" s="58" t="s">
         <v>162</v>
@@ -12882,13 +12879,13 @@
       </c>
     </row>
     <row r="108" spans="1:34" ht="19" x14ac:dyDescent="0.2">
-      <c r="AA108" s="58"/>
-      <c r="AB108" s="58"/>
-      <c r="AC108" s="58"/>
-      <c r="AD108" s="58"/>
+      <c r="AA108" s="69"/>
+      <c r="AB108" s="69"/>
+      <c r="AC108" s="69"/>
+      <c r="AD108" s="69"/>
       <c r="AE108" s="60">
         <f>AE107*(1+AH108)/(AH109-AH108)</f>
-        <v>55294014998.467751</v>
+        <v>50571940943.139999</v>
       </c>
       <c r="AF108" s="61" t="s">
         <v>146</v>
@@ -12903,23 +12900,23 @@
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.2">
       <c r="AA109" s="60">
         <f t="shared" ref="AA109:AC109" si="21">AA108+AA107</f>
-        <v>1574000000</v>
+        <v>1522000000</v>
       </c>
       <c r="AB109" s="60">
         <f t="shared" si="21"/>
-        <v>2026000000</v>
+        <v>2013000000</v>
       </c>
       <c r="AC109" s="60">
         <f t="shared" si="21"/>
-        <v>2498000000</v>
+        <v>2476000000</v>
       </c>
       <c r="AD109" s="60">
         <f>AD108+AD107</f>
-        <v>2892000000</v>
+        <v>2854000000</v>
       </c>
       <c r="AE109" s="60">
         <f>AE108+AE107</f>
-        <v>59099014998.467751</v>
+        <v>54086940943.139999</v>
       </c>
       <c r="AF109" s="61" t="s">
         <v>143</v>
@@ -12929,14 +12926,14 @@
       </c>
       <c r="AH109" s="33">
         <f>AH106</f>
-        <v>9.5534306472555411E-2</v>
+        <v>9.6242569156102825E-2</v>
       </c>
     </row>
     <row r="110" spans="1:34" ht="19" x14ac:dyDescent="0.2">
-      <c r="AA110" s="72" t="s">
+      <c r="AA110" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="AB110" s="72"/>
+      <c r="AB110" s="73"/>
       <c r="AC110" s="57"/>
       <c r="AD110" s="57"/>
       <c r="AE110" s="57"/>
@@ -12948,7 +12945,7 @@
       </c>
       <c r="AB111" s="51">
         <f>NPV(AH109,AA109,AB109,AC109,AD109,AE109)</f>
-        <v>44482180157.388863</v>
+        <v>41082316658.612549</v>
       </c>
       <c r="AC111" s="57"/>
       <c r="AD111" s="57"/>
@@ -12987,7 +12984,7 @@
       </c>
       <c r="AB114" s="51">
         <f>AB111+AB112-AB113</f>
-        <v>51199480157.388863</v>
+        <v>47799616658.612549</v>
       </c>
       <c r="AC114" s="57"/>
       <c r="AD114" s="57"/>
@@ -13013,7 +13010,7 @@
       </c>
       <c r="AB116" s="64">
         <f>AB114/AB115</f>
-        <v>132.88278097464132</v>
+        <v>124.05879847984306</v>
       </c>
       <c r="AC116" s="57"/>
       <c r="AD116" s="57"/>
@@ -13026,7 +13023,7 @@
       </c>
       <c r="AB117" s="65" cm="1">
         <f t="array" ref="AB117">_FV(A1,"Price",TRUE)</f>
-        <v>258.98</v>
+        <v>272.39999999999998</v>
       </c>
       <c r="AC117" s="57"/>
       <c r="AD117" s="57"/>
@@ -13039,7 +13036,7 @@
       </c>
       <c r="AB118" s="66">
         <f>AB116/AB117-1</f>
-        <v>-0.48689944793172713</v>
+        <v>-0.54457122437649386</v>
       </c>
       <c r="AC118" s="57"/>
       <c r="AD118" s="57"/>

--- a/Healthcare/Intuitive Surgical.xlsx
+++ b/Healthcare/Intuitive Surgical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF78261-BBE5-6E42-8033-55FB44000FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2D3DA5-F2C0-254C-A49E-285FEC1AE579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1767,10 +1767,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1803,10 +1803,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1826,7 +1828,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1839,6 +1841,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1966,11 +1970,11 @@
     <v>Powered by Refinitiv</v>
     <v>358.07</v>
     <v>222.65</v>
-    <v>1.3586</v>
-    <v>4.3600000000000003</v>
-    <v>1.4027000000000001E-2</v>
-    <v>0.77</v>
-    <v>2.4429999999999999E-3</v>
+    <v>1.3591</v>
+    <v>-1.1399999999999999</v>
+    <v>-3.6589999999999999E-3</v>
+    <v>-1.01</v>
+    <v>-3.2540000000000004E-3</v>
     <v>USD</v>
     <v>Intuitive Surgical, Inc. develops, manufactures, and markets the da Vinci surgical system and the Ion endoluminal system. The Company's products and related services enable physicians and healthcare providers to access minimally invasive care. The systems consist of a surgeon console or consoles, a patient-side cart, a vision system, and instruments and accessories. Its da Vinci products consist of five categories, such as da Vinci surgical systems, da Vinci instruments and accessories, da Vinci Stapling, da Vinci Energy, and da Vinci Vision, including Firefly Fluorescence imaging systems and da Vinci Endoscopes. It also provides a suite of systems, learning, and services offerings. Its Ion endoluminal system extends its commercial offerings beyond surgery into diagnostic procedures, enabling minimally invasive biopsies in the lung. Its services include readiness support, maintenance support, perioperative consulting, customer hospital analytics, and market consulting optimization.</v>
     <v>12120</v>
@@ -1978,25 +1982,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1020 Kifer Road, SUNNYVALE, CA, 94086 US</v>
-    <v>315.64</v>
+    <v>312.88</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45261.948569560154</v>
+    <v>45268.941611226561</v>
     <v>0</v>
-    <v>308.73</v>
-    <v>110973000000</v>
+    <v>308.58</v>
+    <v>109290066072</v>
     <v>INTUITIVE SURGICAL, INC.</v>
     <v>INTUITIVE SURGICAL, INC.</v>
-    <v>310.58999999999997</v>
-    <v>73.197199999999995</v>
-    <v>310.83999999999997</v>
-    <v>315.2</v>
-    <v>315.97000000000003</v>
+    <v>310.52</v>
+    <v>73.366799999999998</v>
+    <v>311.56</v>
+    <v>310.42</v>
+    <v>309.41000000000003</v>
     <v>352071600</v>
     <v>ISRG</v>
     <v>INTUITIVE SURGICAL, INC. (XNAS:ISRG)</v>
-    <v>1388826</v>
-    <v>1771953</v>
+    <v>1222954</v>
+    <v>1573446</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -2161,9 +2165,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2608,9 +2612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I194" sqref="I194"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P180" sqref="P180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14107,7 +14111,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14160,7 +14164,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>110973000000</v>
+        <v>109290066072</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>201</v>
@@ -14180,15 +14184,15 @@
         <v>203</v>
       </c>
       <c r="G3" s="35">
-        <f>AVERAGE(Financials!N129:S129)</f>
-        <v>-2.958024472233145E-3</v>
+        <f>AVERAGE(Financials!J129:O129)</f>
+        <v>7.093554982823898E-3</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>204</v>
       </c>
       <c r="I3" s="98">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>50010049682.851288</v>
+        <v>49675697059.171425</v>
       </c>
       <c r="J3" s="36" t="s">
         <v>205</v>
@@ -14233,21 +14237,21 @@
       </c>
       <c r="G4" s="42">
         <f>A5*(1+(5*G3))</f>
-        <v>346864417.95610863</v>
+        <v>364558796.26245391</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="99">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>40582034670.662628</v>
+        <v>40289683904.799637</v>
       </c>
       <c r="J4" s="41" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="100" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.4027000000000001E-2</v>
+        <v>-3.6589999999999999E-3</v>
       </c>
       <c r="L4" s="43" t="s">
         <v>213</v>
@@ -14292,14 +14296,14 @@
       </c>
       <c r="I5" s="99">
         <f>I4+G5-G6</f>
-        <v>46207234670.662628</v>
+        <v>45914883904.799637</v>
       </c>
       <c r="J5" s="41" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="103" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>315.2</v>
+        <v>310.42</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>220</v>
@@ -14319,7 +14323,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48">
         <f>O20/F10</f>
-        <v>15.691883484162895</v>
+        <v>15.453912057692309</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>222</v>
@@ -14347,14 +14351,14 @@
       </c>
       <c r="I6" s="100">
         <f>N25</f>
-        <v>9.7002028049069142E-2</v>
+        <v>9.7486652692781756E-2</v>
       </c>
       <c r="J6" s="41" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="104">
         <f>I5/G4</f>
-        <v>133.21410983270582</v>
+        <v>125.94644368900236</v>
       </c>
       <c r="L6" s="49" t="s">
         <v>226</v>
@@ -14374,14 +14378,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>O20/F12</f>
-        <v>55.486499999999999</v>
+        <v>54.645033036000001</v>
       </c>
       <c r="B7" s="51" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="96">
         <f>F15/A3</f>
-        <v>1.3651969397961667E-2</v>
+        <v>1.3862193101813317E-2</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>229</v>
@@ -14408,7 +14412,7 @@
       </c>
       <c r="K7" s="55">
         <f>K6/K5-1</f>
-        <v>-0.57736640281501961</v>
+        <v>-0.59427084695250842</v>
       </c>
       <c r="L7" s="105" t="s">
         <v>232</v>
@@ -14735,7 +14739,7 @@
       </c>
       <c r="O14" s="74">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
@@ -14887,7 +14891,7 @@
       </c>
       <c r="O17" s="84">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
@@ -14970,24 +14974,24 @@
       </c>
       <c r="O20" s="90">
         <f>A3</f>
-        <v>110973000000</v>
+        <v>109290066072</v>
       </c>
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="121" t="str" cm="1">
+      <c r="A21" s="120" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Healthcare Equipment &amp; Supplies</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="120" cm="1">
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121" cm="1">
         <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1995</v>
       </c>
-      <c r="E21" s="120"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
@@ -15000,7 +15004,7 @@
       </c>
       <c r="O21" s="90">
         <f>O19+O20</f>
-        <v>111147000000</v>
+        <v>109464066072</v>
       </c>
       <c r="P21" s="38"/>
       <c r="Q21" s="38"/>
@@ -15028,7 +15032,7 @@
       </c>
       <c r="O22" s="92">
         <f>(O19/O21)</f>
-        <v>1.5654943453264597E-3</v>
+        <v>1.5895627327195344E-3</v>
       </c>
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
@@ -15053,7 +15057,7 @@
       </c>
       <c r="O23" s="93">
         <f>O20/O21</f>
-        <v>0.99843450565467351</v>
+        <v>0.99841043726728051</v>
       </c>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
@@ -15097,7 +15101,7 @@
       <c r="M25" s="57"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.7002028049069142E-2</v>
+        <v>9.7486652692781756E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="38"/>
